--- a/Calculation.xlsx
+++ b/Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/Arduino/ESP8266/Pump_control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7117B8D0-82E8-E449-A44E-EF9C82BAEC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62570A9D-F2FB-B041-9201-6A8554ED54EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17560" xr2:uid="{F18A9FB7-BD0F-EE4E-A5F6-818A9ED6D8DC}"/>
+    <workbookView xWindow="11480" yWindow="5360" windowWidth="28240" windowHeight="17560" xr2:uid="{F18A9FB7-BD0F-EE4E-A5F6-818A9ED6D8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,12 +110,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -430,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A110C477-48E4-6C4B-A675-3962401D1F80}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,8 +731,9 @@
         <f t="shared" si="2"/>
         <v>598.44155844155853</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>160000</v>
@@ -746,8 +749,9 @@
         <f t="shared" si="2"/>
         <v>638.33766233766244</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>170000</v>
@@ -763,8 +767,9 @@
         <f t="shared" si="2"/>
         <v>678.23376623376635</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>180000</v>
@@ -780,8 +785,9 @@
         <f t="shared" si="2"/>
         <v>718.12987012987026</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>190000</v>
@@ -797,8 +803,9 @@
         <f t="shared" si="2"/>
         <v>758.02597402597416</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>200000</v>
@@ -814,8 +821,9 @@
         <f t="shared" si="2"/>
         <v>797.92207792207807</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>210000</v>
@@ -831,8 +839,9 @@
         <f t="shared" si="2"/>
         <v>837.81818181818187</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>220000.00000000003</v>
@@ -848,8 +857,9 @@
         <f t="shared" si="2"/>
         <v>877.71428571428601</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>229999.99999999997</v>
@@ -865,8 +875,9 @@
         <f t="shared" si="2"/>
         <v>917.61038961038969</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>240000</v>
@@ -882,8 +893,9 @@
         <f t="shared" si="2"/>
         <v>957.5064935064936</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>50000*B26</f>
         <v>250000</v>
@@ -899,6 +911,10 @@
         <f t="shared" si="2"/>
         <v>997.40259740259751</v>
       </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
